--- a/Input_files/cpt_data_files/RWE-Taiwan/SOIL_UNIT-combined.xlsx
+++ b/Input_files/cpt_data_files/RWE-Taiwan/SOIL_UNIT-combined.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc\PycharmProjects\cpt\RWE-Taiwan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc\PycharmProjects\SI_processing_automation\Input_files\cpt_data_files\RWE-Taiwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C31F29-A215-4209-A1B1-217EA286C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14748" windowHeight="5268"/>
+    <workbookView xWindow="-19590" yWindow="3555" windowWidth="18900" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>PointID</t>
   </si>
@@ -44,31 +56,22 @@
     <t>Sand</t>
   </si>
   <si>
-    <t>Sandy Clay</t>
-  </si>
-  <si>
-    <t>Silty Sand</t>
-  </si>
-  <si>
     <t>Silt</t>
   </si>
   <si>
-    <t>BH06-TAICHUNG</t>
-  </si>
-  <si>
-    <t>BH09-TAICHUNG</t>
-  </si>
-  <si>
-    <t>Clayey Sand</t>
-  </si>
-  <si>
-    <t>BH05-TAICHUNG</t>
+    <t>BH01-HSINCHU</t>
+  </si>
+  <si>
+    <t>BH03-HSINCHU</t>
+  </si>
+  <si>
+    <t>BH04-HSINCHU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,25 +166,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,17 +461,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,439 +490,228 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <f>C2</f>
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="C3" s="2">
-        <v>13.6</v>
+        <v>27.95</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B9" si="0">C3</f>
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>37.4</v>
+        <v>15.64</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>37.4</v>
+        <f>C4</f>
+        <v>15.64</v>
       </c>
       <c r="C5" s="2">
-        <v>47.5</v>
+        <v>29.54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>49.7</v>
+        <v>7.9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>49.7</v>
+        <f>C6</f>
+        <v>7.9</v>
       </c>
       <c r="C7" s="2">
-        <v>54.4</v>
+        <v>13.7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>54.4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>57.8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C7</f>
+        <v>13.7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>57.8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>12.9</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <f>C8</f>
+        <v>18.350000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <f>C10</f>
-        <v>12.9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" ref="B12:B21" si="1">C11</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>21.4</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="1"/>
-        <v>21.4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>27.1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="1"/>
-        <v>27.1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>28.2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="1"/>
-        <v>28.2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>31.1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="1"/>
-        <v>31.1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="1"/>
-        <v>37.700000000000003</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44.9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="1"/>
-        <v>44.9</v>
-      </c>
-      <c r="C18" s="5">
-        <v>46.9</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="1"/>
-        <v>46.9</v>
-      </c>
-      <c r="C19" s="5">
-        <v>55.3</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="1"/>
-        <v>55.3</v>
-      </c>
-      <c r="C20" s="5">
-        <v>58.1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="1"/>
-        <v>58.1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>60</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6">
-        <f>C22</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C23" s="5">
-        <v>13.3</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="6">
-        <f t="shared" ref="B24:B31" si="2">C23</f>
-        <v>13.3</v>
-      </c>
-      <c r="C24" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="6">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
-      </c>
-      <c r="C25" s="5">
-        <v>42</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="C26" s="5">
-        <v>44.8</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="6">
-        <f t="shared" si="2"/>
-        <v>44.8</v>
-      </c>
-      <c r="C27" s="5">
-        <v>46.7</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="6">
-        <f t="shared" si="2"/>
-        <v>46.7</v>
-      </c>
-      <c r="C28" s="5">
-        <v>49.8</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="6">
-        <f t="shared" si="2"/>
-        <v>49.8</v>
-      </c>
-      <c r="C29" s="5">
-        <v>52</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="6">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="C30" s="5">
-        <v>60.9</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="D31" s="4"/>
     </row>

--- a/Input_files/cpt_data_files/RWE-Taiwan/SOIL_UNIT-combined.xlsx
+++ b/Input_files/cpt_data_files/RWE-Taiwan/SOIL_UNIT-combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc\PycharmProjects\SI_processing_automation\Input_files\cpt_data_files\RWE-Taiwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C31F29-A215-4209-A1B1-217EA286C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA57986-5938-4EC4-993E-61DB0D67A7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19590" yWindow="3555" windowWidth="18900" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
   <si>
     <t>PointID</t>
   </si>
@@ -50,22 +50,52 @@
     <t>GEOL_UNIT</t>
   </si>
   <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>BH01-HSINCHU</t>
+  </si>
+  <si>
+    <t>BH03-HSINCHU</t>
+  </si>
+  <si>
+    <t>BH04-HSINCHU</t>
+  </si>
+  <si>
+    <t>Sandy Clay</t>
+  </si>
+  <si>
+    <t>Silty Sand</t>
+  </si>
+  <si>
+    <t>BH02-HSINCHU</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Clayey Sand</t>
+  </si>
+  <si>
+    <t>BH05-HSINCHU</t>
+  </si>
+  <si>
+    <t>BH06-HSINCHU</t>
+  </si>
+  <si>
+    <t>Silty Clay</t>
+  </si>
+  <si>
+    <t>BH07-HSINCHU</t>
+  </si>
+  <si>
     <t>Clay</t>
   </si>
   <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>Silt</t>
-  </si>
-  <si>
-    <t>BH01-HSINCHU</t>
-  </si>
-  <si>
-    <t>BH03-HSINCHU</t>
-  </si>
-  <si>
-    <t>BH04-HSINCHU</t>
+    <t>BH08-HSINCHU</t>
+  </si>
+  <si>
+    <t>Sandy Silt</t>
   </si>
 </sst>
 </file>
@@ -161,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,8 +208,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -463,10 +496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,9 +523,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -501,56 +534,56 @@
         <v>12.3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <f>C2</f>
         <v>12.3</v>
       </c>
       <c r="C3" s="2">
-        <v>27.95</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>15.64</v>
+        <v>9.9</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
       </c>
       <c r="B5" s="2">
         <f>C4</f>
-        <v>15.64</v>
+        <v>9.9</v>
       </c>
       <c r="C5" s="2">
-        <v>29.54</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -559,161 +592,528 @@
         <v>7.9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <f>C6</f>
         <v>7.9</v>
       </c>
       <c r="C7" s="2">
-        <v>13.7</v>
+        <v>16.7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <f>C7</f>
-        <v>13.7</v>
+        <v>16.7</v>
       </c>
       <c r="C8" s="2">
-        <v>18.350000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <f>C8</f>
-        <v>18.350000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>28.2</v>
+        <v>31.1</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f>C10</f>
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ref="B12:B33" si="0">C11</f>
+        <v>6.2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="D31" s="4"/>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>23.8</v>
+      </c>
+      <c r="C20" s="5">
+        <v>29.1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>29.1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>31.1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>10.9</v>
+      </c>
+      <c r="C24" s="5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C25" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>21.3</v>
+      </c>
+      <c r="C26" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>26.1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C29" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="C31" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>15.1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C33" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" ref="B34:B45" si="1">C33</f>
+        <v>19.5</v>
+      </c>
+      <c r="C34" s="6">
+        <v>26.3</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="1"/>
+        <v>26.3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>30.2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C37" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+      <c r="C38" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="1"/>
+        <v>21.6</v>
+      </c>
+      <c r="C39" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="1"/>
+        <v>29.5</v>
+      </c>
+      <c r="C40" s="6">
+        <v>31.1</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
